--- a/Work.xlsx
+++ b/Work.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>October</t>
   </si>
@@ -99,6 +102,132 @@
   </si>
   <si>
     <t>Bug Fixes - company profile, indices performances</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Mutual fund announcments, memory leakage</t>
+  </si>
+  <si>
+    <t>Mutual fund announcement details, memory leakage, sukuk unlisted profile search</t>
+  </si>
+  <si>
+    <t>Announcement URL fix for indices performance page</t>
+  </si>
+  <si>
+    <t>Fund market watch issue fix</t>
+  </si>
+  <si>
+    <t>Negotiated deals calculation issue</t>
+  </si>
+  <si>
+    <t>Ngotiated deals issue fix, news details time fix, indices performances news time format change</t>
+  </si>
+  <si>
+    <t>UI fixes, label updates, twiter new implementation analysis, load testing call</t>
+  </si>
+  <si>
+    <t>Bug Fixes, Serevlet Caching research</t>
+  </si>
+  <si>
+    <t>Servlet caching implementation</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>CDN refrences removed for all projects</t>
+  </si>
+  <si>
+    <t>CDN refrences, bug fixes for issuer announcements</t>
+  </si>
+  <si>
+    <t>Handled data exceptions for issuer tranding info and financial calendar, UI fixes</t>
+  </si>
+  <si>
+    <t>Bug fixes - new detail, ETF announcement, Company profile, derivative market watch</t>
+  </si>
+  <si>
+    <t>Bug Fix - Invest Wisely</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Announments, Holiday Calendar, Home page</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Historical report, Search query research</t>
+  </si>
+  <si>
+    <t>Bug Fix - Company Profile</t>
+  </si>
+  <si>
+    <t>Bug Fixes - UI, stock screener, historical report</t>
+  </si>
+  <si>
+    <t>Performance Imporvement - Removing repeated calls for graphs</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Historical Report</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Historical Data, market watch</t>
+  </si>
+  <si>
+    <t>Forgot password new implementation</t>
+  </si>
+  <si>
+    <t>Login/Signin changes as per the old website</t>
+  </si>
+  <si>
+    <t>Bug Fixes contd.</t>
+  </si>
+  <si>
+    <t>Defect Fixes - Multiple Projects</t>
+  </si>
+  <si>
+    <t>Defect fixes contd.</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Company profile, stock screener, year change logic</t>
+  </si>
+  <si>
+    <t>Bug Fixes, label updates - Feedback, contract info, market performance</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Company profile, mutual fund</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Historical Report, Issuer Announcement</t>
+  </si>
+  <si>
+    <t>Bug Fix- Issuer Announcement, Forgot Password</t>
+  </si>
+  <si>
+    <t>Bug Fix- Forgot Password, Issuer announcement, Today Activity</t>
+  </si>
+  <si>
+    <t>Forgot Password Changes</t>
+  </si>
+  <si>
+    <t>New Cache implementation for company prodile and company financials</t>
+  </si>
+  <si>
+    <t>Home Page banner change for performance improvement, forgot password fixes</t>
+  </si>
+  <si>
+    <t>Forgot Password contd</t>
+  </si>
+  <si>
+    <t>Label Updates - Multiple Projects</t>
+  </si>
+  <si>
+    <t>New contraints added for email, password and username, forgot password - client call</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Reset password</t>
   </si>
 </sst>
 </file>
@@ -418,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -668,4 +797,659 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work.xlsx
+++ b/Work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>October</t>
   </si>
@@ -228,6 +228,36 @@
   </si>
   <si>
     <t>Bug Fixes - Reset password</t>
+  </si>
+  <si>
+    <t>Home Page image fix</t>
+  </si>
+  <si>
+    <t>ETF - date issue fix</t>
+  </si>
+  <si>
+    <t>Historical report and issue with login in arabic</t>
+  </si>
+  <si>
+    <t>Factsheet and methodology document fix for indices performance</t>
+  </si>
+  <si>
+    <t>Basket component feature added</t>
+  </si>
+  <si>
+    <t>UI Fixes</t>
+  </si>
+  <si>
+    <t>ETF market watch - new page added</t>
+  </si>
+  <si>
+    <t>Bug Fixes - Issuer trading info, marketwatch, watchlist</t>
+  </si>
+  <si>
+    <t>Home page Carousel</t>
+  </si>
+  <si>
+    <t>Forgot password bug fixes</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1281,172 +1311,250 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:C32"/>
+  <dimension ref="C1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>31</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
